--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P12_trail5 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P12_trail5 Features.xlsx
@@ -4063,7 +4063,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4074,29 +4074,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="17" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4117,115 +4115,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4242,72 +4230,66 @@
         <v>3.572617356083886e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.359145739408195</v>
+        <v>2.342855255038684e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>12.08334247633093</v>
+        <v>3.718145778287913e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.342855255038684e-06</v>
+        <v>-0.09510886228626761</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.718145778287913e-06</v>
+        <v>0.2909914506754783</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.09510886228626761</v>
+        <v>0.09351227070228575</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2909914506754783</v>
+        <v>1.585997889884385</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.09351227070228575</v>
+        <v>1.581757523067444</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.492553213698363</v>
+        <v>3.749403600641981</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.581757523067444</v>
+        <v>1.342335885575864e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.749403600641981</v>
+        <v>21150717.4708618</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.342335885575864e-14</v>
+        <v>5.028671666998687e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>21150717.4708618</v>
+        <v>6.004977834417169</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>5.028671666998687e-06</v>
+        <v>0.0001527726339783613</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>6.004977834417169</v>
+        <v>8.748998599820565</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001527726339783613</v>
+        <v>1.378993287758762</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.748998599820565</v>
+        <v>0.01169397767766516</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.378993287758762</v>
+        <v>2.978573230301508</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01169397767766516</v>
+        <v>0.9451869878681348</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.978573230301508</v>
+        <v>1.879869732131252</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9451869878681348</v>
+        <v>19</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.879869732131252</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1676818702078744</v>
       </c>
     </row>
@@ -4322,72 +4304,66 @@
         <v>2.709975892350714e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3.157388980325773</v>
+        <v>1.781570645443825e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>11.06842542786647</v>
+        <v>3.689191225801391e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.781570645443825e-06</v>
+        <v>-0.09026232200086076</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.689191225801391e-06</v>
+        <v>0.2873481124055135</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.09026232200086076</v>
+        <v>0.09051241579444366</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2873481124055135</v>
+        <v>1.573229468661105</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.09051241579444366</v>
+        <v>1.56449505459372</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.478915047279869</v>
+        <v>3.768788375212398</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.56449505459372</v>
+        <v>1.328562780417681e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.768788375212398</v>
+        <v>21695850.52682293</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.328562780417681e-14</v>
+        <v>4.905482688485472e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>21695850.52682293</v>
+        <v>6.253676934802767</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.905482688485472e-06</v>
+        <v>0.0001343802776991277</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>6.253676934802767</v>
+        <v>8.897618114126555</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001343802776991277</v>
+        <v>1.198169886535341</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.897618114126555</v>
+        <v>0.01063856516190317</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.198169886535341</v>
+        <v>2.969062142773061</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01063856516190317</v>
+        <v>0.9441187820288749</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.969062142773061</v>
+        <v>1.873069000643835</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9441187820288749</v>
+        <v>23</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.873069000643835</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.183035201358924</v>
       </c>
     </row>
@@ -4402,72 +4378,66 @@
         <v>2.087377156142414e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>2.830036734137935</v>
+        <v>1.366432122637822e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>9.524952571269353</v>
+        <v>3.66846548858007e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.366432122637822e-06</v>
+        <v>-0.08336231567682445</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.66846548858007e-06</v>
+        <v>0.2817664518179668</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.08336231567682445</v>
+        <v>0.08615470864779511</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2817664518179668</v>
+        <v>1.606387818003441</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.08615470864779511</v>
+        <v>1.466351837083529</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.511458234026136</v>
+        <v>3.805112029410461</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.466351837083529</v>
+        <v>1.30331888870221e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.805112029410461</v>
+        <v>21450820.56043956</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.30331888870221e-14</v>
+        <v>5.041959040604387e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>21450820.56043956</v>
+        <v>5.997061593540356</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>5.041959040604387e-06</v>
+        <v>0.0001313205132202234</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>5.997061593540356</v>
+        <v>8.865133163358426</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001313205132202234</v>
+        <v>1.218070277067225</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.865133163358426</v>
+        <v>0.01032055608833354</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.218070277067225</v>
+        <v>2.866766477435343</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01032055608833354</v>
+        <v>0.9457866075677159</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.866766477435343</v>
+        <v>1.850480241844544</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9457866075677159</v>
+        <v>24</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.850480241844544</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1942085464752259</v>
       </c>
     </row>
@@ -4482,72 +4452,66 @@
         <v>1.646607290069134e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>2.341218919612973</v>
+        <v>1.061414749206237e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>7.398730968140924</v>
+        <v>3.653766731439703e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.061414749206237e-06</v>
+        <v>-0.07487417256841278</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.653766731439703e-06</v>
+        <v>0.2745253365004449</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.07487417256841278</v>
+        <v>0.0808091044400991</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2745253365004449</v>
+        <v>1.614602452212348</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.0808091044400991</v>
+        <v>1.470614925512293</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.519016188573705</v>
+        <v>4.071987915501814</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.470614925512293</v>
+        <v>1.130261780709728e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.071987915501814</v>
+        <v>24245381.12449276</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.130261780709728e-14</v>
+        <v>4.472708929410726e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>24245381.12449276</v>
+        <v>6.644113964165306</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.472708929410726e-06</v>
+        <v>0.0001293585879087028</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>6.644113964165306</v>
+        <v>8.527626002263981</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001293585879087028</v>
+        <v>1.216982898615745</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.527626002263981</v>
+        <v>0.009407008933282109</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.216982898615745</v>
+        <v>2.846122353518748</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.009407008933282109</v>
+        <v>0.9477836403815666</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.846122353518748</v>
+        <v>1.852347882184222</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9477836403815666</v>
+        <v>24</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.852347882184222</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1985758816159774</v>
       </c>
     </row>
@@ -4562,72 +4526,66 @@
         <v>1.34141105285265e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1.6959054511423</v>
+        <v>8.386065047841299e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>4.834204754147641</v>
+        <v>3.643342913729392e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>8.386065047841299e-07</v>
+        <v>-0.06519681997873111</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.643342913729392e-06</v>
+        <v>0.2670973753650583</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.06519681997873111</v>
+        <v>0.07546129116431358</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2670973753650583</v>
+        <v>1.61239812241235</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.07546129116431358</v>
+        <v>1.59605002446993</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.515196918073872</v>
+        <v>4.167453876312961</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.59605002446993</v>
+        <v>1.07907194021152e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.167453876312961</v>
+        <v>25020651.0432298</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.07907194021152e-14</v>
+        <v>4.338577086504681e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>25020651.0432298</v>
+        <v>6.755346208835165</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.338577086504681e-06</v>
+        <v>0.0001214344648514974</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>6.755346208835165</v>
+        <v>7.247827131357561</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001214344648514974</v>
+        <v>1.318002623462623</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.247827131357561</v>
+        <v>0.006379073645551019</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.318002623462623</v>
+        <v>3.072598572070779</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.006379073645551019</v>
+        <v>0.9480408811855819</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.072598572070779</v>
+        <v>1.836688890995017</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9480408811855819</v>
+        <v>27</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.836688890995017</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1945938790357515</v>
       </c>
     </row>
@@ -4642,72 +4600,66 @@
         <v>1.136989884482662e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.9729636907757955</v>
+        <v>6.712749502446157e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>2.245511258090934</v>
+        <v>3.636009269196905e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>6.712749502446157e-07</v>
+        <v>-0.05313625430678581</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.636009269196905e-06</v>
+        <v>0.2570419147863874</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.05313625430678581</v>
+        <v>0.06878482446090128</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2570419147863874</v>
+        <v>1.602991709914566</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.06878482446090128</v>
+        <v>1.606837377588236</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.500763138649837</v>
+        <v>4.121879834249217</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.606837377588236</v>
+        <v>1.103065623329506e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.121879834249217</v>
+        <v>23787507.56214966</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.103065623329506e-14</v>
+        <v>4.521938933028888e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>23787507.56214966</v>
+        <v>6.241647368360649</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>4.521938933028888e-06</v>
+        <v>0.0001284508234938636</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>6.241647368360649</v>
+        <v>6.96845401220739</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001284508234938636</v>
+        <v>2.129572371690322</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>6.96845401220739</v>
+        <v>0.006237488665413853</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>2.129572371690322</v>
+        <v>3.202709743809418</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.006237488665413853</v>
+        <v>0.9462115462510224</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.202709743809418</v>
+        <v>1.872791920017631</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9462115462510224</v>
+        <v>10</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.872791920017631</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1840021797925553</v>
       </c>
     </row>
@@ -5084,7 +5036,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.327074578392984</v>
+        <v>1.326129954475392</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.146241345601975</v>
@@ -5173,7 +5125,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.336325346719305</v>
+        <v>1.338928327833257</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.018272940897142</v>
@@ -5262,7 +5214,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.356876320098283</v>
+        <v>1.353507634827214</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.112941929067589</v>
@@ -5351,7 +5303,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.378355989666302</v>
+        <v>1.379595357876726</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.005653776269105</v>
@@ -5440,7 +5392,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.384673688587831</v>
+        <v>1.380710516590551</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.922790959773207</v>
@@ -5529,7 +5481,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.413789944840897</v>
+        <v>1.414355732430103</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.116770425420672</v>
@@ -5618,7 +5570,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.37948059379093</v>
+        <v>1.380032488033642</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.075538058136983</v>
@@ -5707,7 +5659,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.377832914904693</v>
+        <v>1.375805516412932</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.082996514743808</v>
@@ -5796,7 +5748,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.372741195247355</v>
+        <v>1.373534529047743</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.01187861006604</v>
@@ -5885,7 +5837,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.374213293413075</v>
+        <v>1.373991538585494</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.073295012361177</v>
@@ -5974,7 +5926,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.39210023524324</v>
+        <v>1.39132046767919</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.075497782645611</v>
@@ -6063,7 +6015,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.429219132614642</v>
+        <v>1.427829477976777</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.166016349903557</v>
@@ -6152,7 +6104,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.440425896240252</v>
+        <v>1.436813511516748</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.98678306750282</v>
@@ -6241,7 +6193,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.446785319436039</v>
+        <v>1.443896391280254</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.17339002944203</v>
@@ -6330,7 +6282,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.44549990208244</v>
+        <v>1.443827572846482</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.111138739908976</v>
@@ -6419,7 +6371,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.445547679861872</v>
+        <v>1.437873381456356</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.197937861196181</v>
@@ -6508,7 +6460,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.442049418914037</v>
+        <v>1.430227033661264</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.140771804519721</v>
@@ -6597,7 +6549,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.480386723268718</v>
+        <v>1.466179543707738</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.086261200911175</v>
@@ -6686,7 +6638,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.473076312674807</v>
+        <v>1.45571010234581</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.17021327456477</v>
@@ -6775,7 +6727,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.50391652270319</v>
+        <v>1.487789257815201</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.132626380105724</v>
@@ -6864,7 +6816,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.514190009202595</v>
+        <v>1.494221607132402</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.218436786563754</v>
@@ -6953,7 +6905,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.571650160992757</v>
+        <v>1.546213346556264</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.199484935571719</v>
@@ -7042,7 +6994,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.581145335062638</v>
+        <v>1.553765039672393</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.110229505413793</v>
@@ -7131,7 +7083,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.628236603783221</v>
+        <v>1.593415851976039</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.360757247619298</v>
@@ -7220,7 +7172,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.615722775876675</v>
+        <v>1.583099706635017</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.362301912886573</v>
@@ -7309,7 +7261,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.617273331659491</v>
+        <v>1.584922884539903</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.217175863905759</v>
@@ -7398,7 +7350,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.622101417984612</v>
+        <v>1.587992923466223</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.341121335745414</v>
@@ -7487,7 +7439,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.635175540275442</v>
+        <v>1.599020594471276</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.267836404070531</v>
@@ -7576,7 +7528,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.645826652748108</v>
+        <v>1.60904500062788</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.234349820581106</v>
@@ -7665,7 +7617,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.655577472063444</v>
+        <v>1.608648636292278</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.247053651429813</v>
@@ -7754,7 +7706,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.615729121219675</v>
+        <v>1.583573186774774</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.273521112144019</v>
@@ -7843,7 +7795,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.622762740570279</v>
+        <v>1.593015008016223</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.345110109255955</v>
@@ -7932,7 +7884,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.617165726937106</v>
+        <v>1.585891121798655</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.355490481567807</v>
@@ -8021,7 +7973,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.64969264515454</v>
+        <v>1.615094889519643</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.41539203763246</v>
@@ -8110,7 +8062,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.606959617616935</v>
+        <v>1.579788959852177</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.344012080064616</v>
@@ -8199,7 +8151,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.575102320314599</v>
+        <v>1.551932426384302</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.313896944590658</v>
@@ -8288,7 +8240,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.571179025172539</v>
+        <v>1.546298215928973</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.334669225726742</v>
@@ -8377,7 +8329,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.579962001304329</v>
+        <v>1.553461151862401</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.323942188702502</v>
@@ -8466,7 +8418,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.587789114909759</v>
+        <v>1.560789644229346</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.378130583048793</v>
@@ -8555,7 +8507,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.581228337108169</v>
+        <v>1.556525299589463</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.298833671217499</v>
@@ -8644,7 +8596,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.580821467651553</v>
+        <v>1.555212039197588</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.403139947501671</v>
@@ -8733,7 +8685,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.536808287337321</v>
+        <v>1.520636962722705</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.26976401946136</v>
@@ -8822,7 +8774,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.540635552999842</v>
+        <v>1.525575336647994</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.307351188907458</v>
@@ -8911,7 +8863,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.537606179238858</v>
+        <v>1.523553350464636</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.247989215823439</v>
@@ -9000,7 +8952,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.536984880457816</v>
+        <v>1.523788432800892</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.340442148661123</v>
@@ -9089,7 +9041,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.513104249712736</v>
+        <v>1.506938536014152</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.276153364826096</v>
@@ -9178,7 +9130,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.503873196217128</v>
+        <v>1.496811410080255</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.195465067725686</v>
@@ -9267,7 +9219,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.502737435870764</v>
+        <v>1.49560308939807</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.212366299859236</v>
@@ -9356,7 +9308,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.499320602892556</v>
+        <v>1.494246304008226</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.296090578837094</v>
@@ -9445,7 +9397,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.522085926485871</v>
+        <v>1.515762699750736</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.222068657015716</v>
@@ -9534,7 +9486,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.553015420551089</v>
+        <v>1.548094927999358</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.290390699435007</v>
@@ -9820,7 +9772,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.31372360853973</v>
+        <v>1.30665459017053</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.026416221395266</v>
@@ -9909,7 +9861,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.322507776371793</v>
+        <v>1.319050109997873</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.944314025264411</v>
@@ -9998,7 +9950,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.339884738113086</v>
+        <v>1.333160289788032</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.995937782795825</v>
@@ -10087,7 +10039,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.373060434910045</v>
+        <v>1.364841049820078</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.884422317773558</v>
@@ -10176,7 +10128,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.425486066877446</v>
+        <v>1.413043543176605</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.972348897434553</v>
@@ -10265,7 +10217,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.44581653649472</v>
+        <v>1.433877177209651</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.359296622684352</v>
@@ -10354,7 +10306,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.443068410329293</v>
+        <v>1.428807637148373</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.43058660729035</v>
@@ -10443,7 +10395,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.450314652367016</v>
+        <v>1.436469445943645</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.403896305267093</v>
@@ -10532,7 +10484,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.456362367126598</v>
+        <v>1.447157587548243</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.300442758243294</v>
@@ -10621,7 +10573,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.445882872616511</v>
+        <v>1.437626535897577</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.355686646255054</v>
@@ -10710,7 +10662,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.460377799253575</v>
+        <v>1.449175372593219</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.442169056298355</v>
@@ -10799,7 +10751,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.48150537332014</v>
+        <v>1.467207719152473</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.462684372525665</v>
@@ -10888,7 +10840,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.49114414642353</v>
+        <v>1.476087534416423</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.165945351459146</v>
@@ -10977,7 +10929,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.493663355151134</v>
+        <v>1.475878244992548</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.296798633948626</v>
@@ -11066,7 +11018,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.4934146816015</v>
+        <v>1.478457276033184</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.337900457270629</v>
@@ -11155,7 +11107,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.481014182388889</v>
+        <v>1.464283316057658</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.374595948219346</v>
@@ -11244,7 +11196,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.472285624340366</v>
+        <v>1.455157443195265</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.314650008359715</v>
@@ -11333,7 +11285,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.500097461819896</v>
+        <v>1.480945707370284</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.227329932287256</v>
@@ -11422,7 +11374,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.489276114125435</v>
+        <v>1.470012441759016</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.341750121349373</v>
@@ -11511,7 +11463,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.503985911187072</v>
+        <v>1.489730172571093</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.544552490968512</v>
@@ -11600,7 +11552,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.515397191948155</v>
+        <v>1.496353460866766</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.603291815568813</v>
@@ -11689,7 +11641,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.541881155481937</v>
+        <v>1.517631340946113</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.378854947205105</v>
@@ -11778,7 +11730,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.553808936657963</v>
+        <v>1.525733191470115</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.54540402207663</v>
@@ -11867,7 +11819,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.576335315409295</v>
+        <v>1.541214067207523</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.689213565844049</v>
@@ -11956,7 +11908,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.556114946251789</v>
+        <v>1.522065149561992</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.668914558801214</v>
@@ -12045,7 +11997,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.552789985747869</v>
+        <v>1.523726460117228</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.377130909684364</v>
@@ -12134,7 +12086,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.553798834066321</v>
+        <v>1.528678015631317</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.746407255452682</v>
@@ -12223,7 +12175,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.554959091990658</v>
+        <v>1.530030898637092</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.548857608076197</v>
@@ -12312,7 +12264,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.561746444661532</v>
+        <v>1.534250436706949</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.359927776724794</v>
@@ -12401,7 +12353,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.557381724565648</v>
+        <v>1.529479550457803</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.605123497268496</v>
@@ -12490,7 +12442,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.53777004034236</v>
+        <v>1.517744406938808</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.466100899974156</v>
@@ -12579,7 +12531,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.545990142625791</v>
+        <v>1.526990570741562</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.422710025475425</v>
@@ -12668,7 +12620,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.528203540444615</v>
+        <v>1.513328500182817</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.47213226812003</v>
@@ -12757,7 +12709,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.529572541601267</v>
+        <v>1.511995389951414</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.385241828384367</v>
@@ -12846,7 +12798,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.508870101892942</v>
+        <v>1.492571354593688</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.470655918605049</v>
@@ -12935,7 +12887,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.500873064123036</v>
+        <v>1.487859910219648</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.484235737395988</v>
@@ -13024,7 +12976,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.494583619274809</v>
+        <v>1.484825078024253</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.454703061735658</v>
@@ -13113,7 +13065,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.486786310107863</v>
+        <v>1.478543547404054</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.406105034689778</v>
@@ -13202,7 +13154,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.478312403629572</v>
+        <v>1.475286223830105</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.490153010337278</v>
@@ -13291,7 +13243,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.482571984532566</v>
+        <v>1.481243308614254</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.290618312706581</v>
@@ -13380,7 +13332,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.494840269656779</v>
+        <v>1.49190317135505</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.566526508709031</v>
@@ -13469,7 +13421,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.479422041463323</v>
+        <v>1.47814521159373</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.488217969825393</v>
@@ -13558,7 +13510,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.479248403823738</v>
+        <v>1.477962321116146</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.492995114804503</v>
@@ -13647,7 +13599,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.478260469456295</v>
+        <v>1.474368014783022</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.351256753143557</v>
@@ -13736,7 +13688,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.48836914679532</v>
+        <v>1.479142065916724</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.365284324125308</v>
@@ -13825,7 +13777,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.476834081523034</v>
+        <v>1.469113594247876</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.60778025521533</v>
@@ -13914,7 +13866,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.480097142829178</v>
+        <v>1.466421971587455</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.643730124341617</v>
@@ -14003,7 +13955,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.484666881605105</v>
+        <v>1.472174118385827</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.440462106046973</v>
@@ -14092,7 +14044,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.475128360535698</v>
+        <v>1.466520784990833</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.535064895643714</v>
@@ -14181,7 +14133,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.506469740479478</v>
+        <v>1.497155505311353</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.526186264071508</v>
@@ -14270,7 +14222,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.515906376125222</v>
+        <v>1.4999820224783</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.358222828683255</v>
@@ -14556,7 +14508,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.453579347652812</v>
+        <v>1.462492142774187</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.420171585161653</v>
@@ -14645,7 +14597,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.467299083702237</v>
+        <v>1.477315399926228</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.353841823736169</v>
@@ -14734,7 +14686,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.469291195449309</v>
+        <v>1.478541238686866</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.296319923850636</v>
@@ -14823,7 +14775,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.481760844897084</v>
+        <v>1.490297976190373</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.64399371013848</v>
@@ -14912,7 +14864,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.496497276832048</v>
+        <v>1.499475727215201</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.28600578381713</v>
@@ -15001,7 +14953,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.509029209749319</v>
+        <v>1.514169159604217</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.706293672511767</v>
@@ -15090,7 +15042,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.482358623098803</v>
+        <v>1.492210953574999</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.945183364629196</v>
@@ -15179,7 +15131,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.479450270869527</v>
+        <v>1.484482126646761</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.985801229607382</v>
@@ -15268,7 +15220,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.463933369818955</v>
+        <v>1.473772224717187</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.871876711232523</v>
@@ -15357,7 +15309,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.463401711949979</v>
+        <v>1.474025944946585</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.93122424509604</v>
@@ -15446,7 +15398,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.478940829327426</v>
+        <v>1.489241015681003</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.824468520451068</v>
@@ -15535,7 +15487,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.496057113771785</v>
+        <v>1.503757340302758</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.509541297959214</v>
@@ -15624,7 +15576,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.483106162577267</v>
+        <v>1.492975453154495</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.56209441037136</v>
@@ -15713,7 +15665,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.485648037083406</v>
+        <v>1.492427383146809</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.750040247807024</v>
@@ -15802,7 +15754,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.484289457633363</v>
+        <v>1.492030498160859</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.454284540789523</v>
@@ -15891,7 +15843,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.489327145472039</v>
+        <v>1.492414648690206</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.455088961815518</v>
@@ -15980,7 +15932,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.496007850659551</v>
+        <v>1.501123009379409</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.418461318398269</v>
@@ -16069,7 +16021,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.506621475645855</v>
+        <v>1.511030285394301</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.674765774118942</v>
@@ -16158,7 +16110,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.515621725697995</v>
+        <v>1.517288751993552</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.692212447427388</v>
@@ -16247,7 +16199,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.526514150430102</v>
+        <v>1.532165873708644</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.430948035984888</v>
@@ -16336,7 +16288,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.551689116599684</v>
+        <v>1.556807009626473</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.635081135763447</v>
@@ -16425,7 +16377,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.583286844832642</v>
+        <v>1.592384303125758</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.658461971331557</v>
@@ -16514,7 +16466,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.585178350760518</v>
+        <v>1.596010007493184</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.768360539746406</v>
@@ -16603,7 +16555,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.606755138223359</v>
+        <v>1.613218120482654</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.062899864703878</v>
@@ -16692,7 +16644,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.608021333574528</v>
+        <v>1.610612155113528</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.692517850963893</v>
@@ -16781,7 +16733,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.60927529029137</v>
+        <v>1.608684263155681</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.496516874713512</v>
@@ -16870,7 +16822,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.606522454902628</v>
+        <v>1.609583577531142</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.527985388167539</v>
@@ -16959,7 +16911,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.628268446914444</v>
+        <v>1.622443794797494</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.939165045458261</v>
@@ -17048,7 +17000,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.630978609882681</v>
+        <v>1.625585394430604</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.720517140561458</v>
@@ -17137,7 +17089,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.61549143271112</v>
+        <v>1.611216815745741</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.991967669187249</v>
@@ -17226,7 +17178,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.615554093790072</v>
+        <v>1.612392938330478</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.39313959645007</v>
@@ -17315,7 +17267,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.59883838067063</v>
+        <v>1.601673273746278</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.256519926455646</v>
@@ -17404,7 +17356,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.599397735154136</v>
+        <v>1.602145929206435</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.474945140907691</v>
@@ -17493,7 +17445,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.592730152147372</v>
+        <v>1.59260240058716</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.307252769819526</v>
@@ -17582,7 +17534,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.562109531799502</v>
+        <v>1.560979618924946</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.50177754264928</v>
@@ -17671,7 +17623,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.544756395409572</v>
+        <v>1.546600414991999</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.495073871120389</v>
@@ -17760,7 +17712,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.53384363646401</v>
+        <v>1.529822551302112</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.483045078029862</v>
@@ -17849,7 +17801,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.536823747715774</v>
+        <v>1.531479229667295</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.525103049753757</v>
@@ -17938,7 +17890,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.546925240934025</v>
+        <v>1.540901705440582</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.598452798653991</v>
@@ -18027,7 +17979,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.544691583668853</v>
+        <v>1.54612908732005</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.495366883206161</v>
@@ -18116,7 +18068,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.547317399088242</v>
+        <v>1.54656613675931</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.531432806790249</v>
@@ -18205,7 +18157,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.53935536990536</v>
+        <v>1.537630064627324</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.577212386413208</v>
@@ -18294,7 +18246,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.546216633909614</v>
+        <v>1.547777953663638</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.549872328832826</v>
@@ -18383,7 +18335,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.537415533118414</v>
+        <v>1.537994990631973</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.518553450502539</v>
@@ -18472,7 +18424,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.547244075032861</v>
+        <v>1.547879884276958</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.62973306269228</v>
@@ -18561,7 +18513,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.535032362958571</v>
+        <v>1.54020868734036</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.571807146029419</v>
@@ -18650,7 +18602,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.545074564741634</v>
+        <v>1.545204397318132</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.557495678628532</v>
@@ -18739,7 +18691,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.537462924840063</v>
+        <v>1.540099210606479</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.569674448638444</v>
@@ -18828,7 +18780,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.544335284432334</v>
+        <v>1.549210811761724</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.623266899942003</v>
@@ -18917,7 +18869,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.554695335769622</v>
+        <v>1.564179535477382</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.689771755802912</v>
@@ -19006,7 +18958,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.562047710150047</v>
+        <v>1.56662084394191</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.898829889106439</v>
@@ -19292,7 +19244,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.289539031443899</v>
+        <v>1.290278196858632</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.792722290588289</v>
@@ -19381,7 +19333,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.302633934624501</v>
+        <v>1.308670512653339</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.743786693129349</v>
@@ -19470,7 +19422,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.322942814691951</v>
+        <v>1.328655713213299</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.74685781008096</v>
@@ -19559,7 +19511,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.327905414533091</v>
+        <v>1.332678120344105</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.752847684736982</v>
@@ -19648,7 +19600,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.33830304056653</v>
+        <v>1.343448854185579</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.69959512074011</v>
@@ -19737,7 +19689,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.351612738590288</v>
+        <v>1.360149595349557</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.743352049702992</v>
@@ -19826,7 +19778,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.352613160027407</v>
+        <v>1.359412482838913</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.748381339202081</v>
@@ -19915,7 +19867,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.369020397967397</v>
+        <v>1.378937718100977</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.759940254294937</v>
@@ -20004,7 +19956,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.399176131702028</v>
+        <v>1.413394158113386</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.789323316859518</v>
@@ -20093,7 +20045,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.443284007468437</v>
+        <v>1.458128585510694</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.768958340541941</v>
@@ -20182,7 +20134,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.456291719062142</v>
+        <v>1.470930951562554</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.801626029254675</v>
@@ -20271,7 +20223,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.481006809172384</v>
+        <v>1.51114251835953</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.662442100236452</v>
@@ -20360,7 +20312,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.459369651371071</v>
+        <v>1.486028520136807</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.818802700413282</v>
@@ -20449,7 +20401,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.45780446673877</v>
+        <v>1.482871867189248</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.883525364719914</v>
@@ -20538,7 +20490,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.460795732425243</v>
+        <v>1.488648794591448</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.89638854160344</v>
@@ -20627,7 +20579,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.463717055697326</v>
+        <v>1.490268830448952</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.89454664524026</v>
@@ -20716,7 +20668,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.461421750766149</v>
+        <v>1.485975180838134</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.894979823059477</v>
@@ -20805,7 +20757,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.465624461040676</v>
+        <v>1.489241038255594</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.903393412010324</v>
@@ -20894,7 +20846,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.470409406224902</v>
+        <v>1.492878552887821</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.899567158387014</v>
@@ -20983,7 +20935,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.453312681774709</v>
+        <v>1.475171766842673</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.905098729186088</v>
@@ -21072,7 +21024,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.453362892003083</v>
+        <v>1.472437094234225</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.910154216184919</v>
@@ -21161,7 +21113,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.455597167500282</v>
+        <v>1.474993600155356</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.887125366220326</v>
@@ -21250,7 +21202,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.44410859314885</v>
+        <v>1.460422110995439</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.876143771669313</v>
@@ -21339,7 +21291,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.408405521466639</v>
+        <v>1.419507957324414</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.840644067201665</v>
@@ -21428,7 +21380,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.401963766781013</v>
+        <v>1.412040630738272</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.825364392366006</v>
@@ -21517,7 +21469,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.415157077213865</v>
+        <v>1.42108095830603</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.841085331521255</v>
@@ -21606,7 +21558,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.449490297535478</v>
+        <v>1.447483249771158</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.801209764852521</v>
@@ -21695,7 +21647,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.550580085310043</v>
+        <v>1.54632447108094</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.135015083555137</v>
@@ -21784,7 +21736,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.560374672780867</v>
+        <v>1.555984685655152</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.159233623677634</v>
@@ -21873,7 +21825,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.511867249983448</v>
+        <v>1.492852043464265</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.026721989556508</v>
@@ -21962,7 +21914,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.465332392651861</v>
+        <v>1.464425588568968</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.039885478050337</v>
@@ -22051,7 +22003,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.470880059868162</v>
+        <v>1.469355183766707</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.068720303509422</v>
@@ -22140,7 +22092,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.462832231818578</v>
+        <v>1.462177676732086</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.980236968355327</v>
@@ -22229,7 +22181,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.44645762692341</v>
+        <v>1.447174752403098</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.048514006864208</v>
@@ -22318,7 +22270,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.439502691859379</v>
+        <v>1.441179109894159</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.043430312557683</v>
@@ -22407,7 +22359,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.43563013064786</v>
+        <v>1.440420787502154</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.077037283409708</v>
@@ -22496,7 +22448,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.440220810302683</v>
+        <v>1.445457730059612</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.044796268325666</v>
@@ -22585,7 +22537,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.432350769108849</v>
+        <v>1.434030021385507</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.039450871143582</v>
@@ -22674,7 +22626,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.412478879366905</v>
+        <v>1.420064089532287</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.036622096398355</v>
@@ -22763,7 +22715,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.294836154328971</v>
+        <v>1.305268682608821</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.642244579389476</v>
@@ -22852,7 +22804,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.29600775831048</v>
+        <v>1.307514019628543</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.717927434344661</v>
@@ -22941,7 +22893,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.301975874512424</v>
+        <v>1.312647733317768</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.642705313874097</v>
@@ -23030,7 +22982,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.290216444907971</v>
+        <v>1.301808060386149</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.6296013900495</v>
@@ -23119,7 +23071,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.286684106666832</v>
+        <v>1.29747474281116</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.623739647036821</v>
@@ -23208,7 +23160,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.297496880404784</v>
+        <v>1.313336861392371</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.570127992804278</v>
@@ -23297,7 +23249,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.297978309999193</v>
+        <v>1.312005656497478</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.603449782830515</v>
@@ -23386,7 +23338,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.288225901033646</v>
+        <v>1.303689515854355</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.609346918081169</v>
@@ -23475,7 +23427,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.268289172661566</v>
+        <v>1.283834480046404</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.607393139585975</v>
@@ -23564,7 +23516,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.272629563218376</v>
+        <v>1.287506733149129</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.617380403361363</v>
@@ -23653,7 +23605,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.28834932892421</v>
+        <v>1.305196968943012</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.606276191084646</v>
@@ -23742,7 +23694,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.285569296449933</v>
+        <v>1.301050860518989</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.597678293691619</v>
@@ -24028,7 +23980,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.494592979057878</v>
+        <v>1.484288621917904</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.812025919061168</v>
@@ -24117,7 +24069,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.509133740534379</v>
+        <v>1.499760061918215</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.720079799536531</v>
@@ -24206,7 +24158,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.510351945663647</v>
+        <v>1.502506263375214</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.778348742006764</v>
@@ -24295,7 +24247,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.52605458546097</v>
+        <v>1.516609799111636</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.537196179830717</v>
@@ -24384,7 +24336,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.535870389061864</v>
+        <v>1.520457113896029</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.287012904088836</v>
@@ -24473,7 +24425,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.55097298010698</v>
+        <v>1.53532163285055</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.643856081763339</v>
@@ -24562,7 +24514,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.537118009063467</v>
+        <v>1.524940543304526</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.675506514352202</v>
@@ -24651,7 +24603,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.564246741907253</v>
+        <v>1.552917461470188</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.753088324699903</v>
@@ -24740,7 +24692,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.593767136643676</v>
+        <v>1.590294655547385</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.659315442147945</v>
@@ -24829,7 +24781,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.593851438932966</v>
+        <v>1.590647171641431</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.699952189118325</v>
@@ -24918,7 +24870,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.604910224363405</v>
+        <v>1.602427739907695</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.844854827308371</v>
@@ -25007,7 +24959,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.604546406905132</v>
+        <v>1.59960981023917</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.871349221710923</v>
@@ -25096,7 +25048,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.603218093473324</v>
+        <v>1.599258926145429</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.692147121130626</v>
@@ -25185,7 +25137,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.602479297459289</v>
+        <v>1.595258383515364</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.838815043364455</v>
@@ -25274,7 +25226,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.598122520080296</v>
+        <v>1.593807341859749</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.643943444081159</v>
@@ -25363,7 +25315,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.582113737988927</v>
+        <v>1.578093531113547</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.885425041321871</v>
@@ -25452,7 +25404,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.573946901898853</v>
+        <v>1.569620999859908</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.959813355901647</v>
@@ -25541,7 +25493,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.579697411554247</v>
+        <v>1.573267740895277</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.706375250630394</v>
@@ -25630,7 +25582,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.579856465186232</v>
+        <v>1.57289899953299</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.947281421088817</v>
@@ -25719,7 +25671,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.573313313406184</v>
+        <v>1.566437761904309</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.86377178471625</v>
@@ -25808,7 +25760,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.578527905250583</v>
+        <v>1.570705936422672</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.436381620771765</v>
@@ -25897,7 +25849,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.60881886230459</v>
+        <v>1.597136388772974</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.770002846213602</v>
@@ -25986,7 +25938,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.603556942151982</v>
+        <v>1.590279998506735</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.024687062462073</v>
@@ -26075,7 +26027,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.57059472371497</v>
+        <v>1.554212165953962</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.798514030541834</v>
@@ -26164,7 +26116,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.514535791984972</v>
+        <v>1.500232227719689</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.086202027996271</v>
@@ -26253,7 +26205,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.491165618486797</v>
+        <v>1.482756445347275</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.14305305189665</v>
@@ -26342,7 +26294,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.500648529573015</v>
+        <v>1.496932602994472</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.06878854193984</v>
@@ -26431,7 +26383,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.496178099663164</v>
+        <v>1.48971529225797</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.076240693798058</v>
@@ -26520,7 +26472,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.501142432886895</v>
+        <v>1.492287480868093</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.148640769373953</v>
@@ -26609,7 +26561,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.484144162708491</v>
+        <v>1.47180339648926</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.063229321809155</v>
@@ -26698,7 +26650,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.489975855879673</v>
+        <v>1.478372875373936</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.001857007505504</v>
@@ -26787,7 +26739,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.491935799029756</v>
+        <v>1.482258984925154</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.101213608250323</v>
@@ -26876,7 +26828,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.475332987971584</v>
+        <v>1.470772926065504</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.054344330214257</v>
@@ -26965,7 +26917,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.457868587177567</v>
+        <v>1.450292659102357</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.149821918781571</v>
@@ -27054,7 +27006,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.328472565195146</v>
+        <v>1.328195328793146</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.583098931315248</v>
@@ -27143,7 +27095,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.314661818043367</v>
+        <v>1.314765408031657</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.590016166778849</v>
@@ -27232,7 +27184,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.30770632932853</v>
+        <v>1.308808325452231</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.589535244305959</v>
@@ -27321,7 +27273,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.300336187693504</v>
+        <v>1.301661175004377</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.584111195403583</v>
@@ -27410,7 +27362,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.29904455823654</v>
+        <v>1.300643316309501</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.592280896487939</v>
@@ -27499,7 +27451,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.322706135170875</v>
+        <v>1.325042374740958</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.568669841320046</v>
@@ -27588,7 +27540,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.328962738908197</v>
+        <v>1.332735246252141</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.580045837220805</v>
@@ -27677,7 +27629,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.328714806689999</v>
+        <v>1.330348308647681</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.57669464957571</v>
@@ -27766,7 +27718,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.328382056358379</v>
+        <v>1.333431302748222</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.572887828722425</v>
@@ -27855,7 +27807,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.332041291227866</v>
+        <v>1.338825427612953</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.584650368292617</v>
@@ -27944,7 +27896,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.341465041750088</v>
+        <v>1.34909850266352</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.564988560810177</v>
@@ -28033,7 +27985,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.340967960318805</v>
+        <v>1.350781218677929</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.571208439989499</v>
@@ -28122,7 +28074,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.34311830777057</v>
+        <v>1.35100483430472</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.572460819822052</v>
@@ -28211,7 +28163,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.350809222523469</v>
+        <v>1.359740359791858</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.560549229995079</v>
@@ -28300,7 +28252,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.357240284736612</v>
+        <v>1.364861809249819</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.590560696628415</v>
@@ -28389,7 +28341,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.54130076701343</v>
+        <v>1.543180991887048</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.073274632092328</v>
@@ -28478,7 +28430,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.589904631614644</v>
+        <v>1.589156778430683</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.703412563057079</v>
@@ -28764,7 +28716,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.290619567094441</v>
+        <v>1.290434840051963</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.116283246643343</v>
@@ -28853,7 +28805,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.300993357832132</v>
+        <v>1.302489394991776</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.012886623985533</v>
@@ -28942,7 +28894,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.319574318148088</v>
+        <v>1.314112189882705</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.120481074921709</v>
@@ -29031,7 +28983,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.345680335444488</v>
+        <v>1.343912690910028</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.014110479111773</v>
@@ -29120,7 +29072,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.352451434186452</v>
+        <v>1.348706085598263</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.881212221426216</v>
@@ -29209,7 +29161,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.378649874254753</v>
+        <v>1.378289120708091</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.096937452517154</v>
@@ -29298,7 +29250,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.353725893117191</v>
+        <v>1.352394083371642</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.069207013381387</v>
@@ -29387,7 +29339,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.355168231141576</v>
+        <v>1.354721045211386</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.050608687534889</v>
@@ -29476,7 +29428,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.358363890748927</v>
+        <v>1.360466144927173</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.966684534340532</v>
@@ -29565,7 +29517,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.358311126810214</v>
+        <v>1.361263276689181</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.03380725959728</v>
@@ -29654,7 +29606,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.373535111338102</v>
+        <v>1.377328155619508</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.019994659266616</v>
@@ -29743,7 +29695,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.402445243899894</v>
+        <v>1.407558540224492</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.025781681351225</v>
@@ -29832,7 +29784,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.413418691806589</v>
+        <v>1.416173454289763</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.917057357357234</v>
@@ -29921,7 +29873,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.425058932598753</v>
+        <v>1.430586618746544</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.013618315006964</v>
@@ -30010,7 +29962,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.421748771002084</v>
+        <v>1.429102728057546</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.03599432040454</v>
@@ -30099,7 +30051,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.406740899526361</v>
+        <v>1.416021338692166</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.022438029727814</v>
@@ -30188,7 +30140,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.403095335549654</v>
+        <v>1.411193990316914</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.034015219206764</v>
@@ -30277,7 +30229,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.433724290880606</v>
+        <v>1.444374748115889</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.982461044733902</v>
@@ -30366,7 +30318,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.423454334590672</v>
+        <v>1.428791846430827</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.025955644114715</v>
@@ -30455,7 +30407,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.43402772035804</v>
+        <v>1.440759502469825</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.960933836469623</v>
@@ -30544,7 +30496,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.439748782336537</v>
+        <v>1.442851066072858</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.980029926291914</v>
@@ -30633,7 +30585,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.487031000154976</v>
+        <v>1.4878602968902</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.238779218734768</v>
@@ -30722,7 +30674,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.503900080609739</v>
+        <v>1.50075893741927</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.060457828482048</v>
@@ -30811,7 +30763,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.543876944605633</v>
+        <v>1.535386708914079</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.488781568380705</v>
@@ -30900,7 +30852,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.536227709716118</v>
+        <v>1.52706047120174</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.393592736945099</v>
@@ -30989,7 +30941,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.556350697712529</v>
+        <v>1.549725699413935</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.38736640257239</v>
@@ -31078,7 +31030,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.559893022393917</v>
+        <v>1.550660505321363</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.42547054275231</v>
@@ -31167,7 +31119,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.567410998339258</v>
+        <v>1.555578146640072</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.378439283973698</v>
@@ -31256,7 +31208,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.576110798208338</v>
+        <v>1.565981204269626</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.390080971725002</v>
@@ -31345,7 +31297,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.578395922258166</v>
+        <v>1.564249589443707</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.255871614903288</v>
@@ -31434,7 +31386,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.572887971930524</v>
+        <v>1.557691729674274</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.214212900164807</v>
@@ -31523,7 +31475,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.576687743910806</v>
+        <v>1.564269225279323</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.298269645917597</v>
@@ -31612,7 +31564,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.565348061164209</v>
+        <v>1.559195772897026</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.457670154098882</v>
@@ -31701,7 +31653,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.58231798374557</v>
+        <v>1.580525290406605</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.771101851873743</v>
@@ -31790,7 +31742,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.571000520833345</v>
+        <v>1.570901685025175</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.496471341800806</v>
@@ -31879,7 +31831,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.547843444730441</v>
+        <v>1.546048121562899</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.269683853135148</v>
@@ -31968,7 +31920,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.536471948814857</v>
+        <v>1.536481783584707</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.252151144977989</v>
@@ -32057,7 +32009,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.504405188539616</v>
+        <v>1.505842193711679</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.324740739262283</v>
@@ -32146,7 +32098,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.498150669289842</v>
+        <v>1.499375974809734</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.348391911833706</v>
@@ -32235,7 +32187,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.495079043520176</v>
+        <v>1.496996980917507</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.222296307402386</v>
@@ -32324,7 +32276,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.490902712819357</v>
+        <v>1.494199977447917</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.352679201810152</v>
@@ -32413,7 +32365,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.460728577713593</v>
+        <v>1.464351869162503</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.229057845211532</v>
@@ -32502,7 +32454,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.463839335528856</v>
+        <v>1.468643270438306</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.278138192547854</v>
@@ -32591,7 +32543,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.464944036998642</v>
+        <v>1.466429363451838</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.207555392267893</v>
@@ -32680,7 +32632,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.464950853007118</v>
+        <v>1.465171174768823</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.384850612403034</v>
@@ -32769,7 +32721,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.442259395572678</v>
+        <v>1.44356921449372</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.185714737587636</v>
@@ -32858,7 +32810,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.440633165087842</v>
+        <v>1.44124853072748</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.067166832160986</v>
@@ -32947,7 +32899,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.44708442798598</v>
+        <v>1.445172125507994</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.067662483349478</v>
@@ -33036,7 +32988,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.450140957807433</v>
+        <v>1.447608780157895</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.152539142334287</v>
@@ -33125,7 +33077,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.467247722853613</v>
+        <v>1.460124479706189</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.169991748153922</v>
@@ -33214,7 +33166,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.495829374065324</v>
+        <v>1.487978795117883</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.17930893484905</v>
